--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_20-27.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_20-27.xlsx
@@ -32,13 +32,19 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALLERGYL 2MG/5ML SYRUP 120ML</t>
   </si>
   <si>
     <t>0:0</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
@@ -1018,7 +1024,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -1038,13 +1044,13 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -1056,7 +1062,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1064,13 +1070,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -1096,11 +1102,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1116,17 +1122,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1134,7 +1140,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1142,13 +1148,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1168,17 +1174,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1186,7 +1192,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1194,17 +1200,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>19.899999999999999</v>
+        <v>27</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1220,17 +1226,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>55</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1238,7 +1244,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1246,17 +1252,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1272,17 +1278,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1290,7 +1296,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1298,7 +1304,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1308,7 +1314,7 @@
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1316,7 +1322,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1324,13 +1330,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1342,7 +1348,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1350,17 +1356,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1382,11 +1388,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1408,11 +1414,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1428,17 +1434,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1446,7 +1452,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1460,11 +1466,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1480,17 +1486,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1506,17 +1512,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1524,7 +1530,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1532,17 +1538,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1558,17 +1564,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1576,7 +1582,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1584,17 +1590,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1616,11 +1622,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1642,11 +1648,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1668,11 +1674,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1688,17 +1694,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1706,7 +1712,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1714,17 +1720,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1732,7 +1738,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1740,17 +1746,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1758,7 +1764,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1766,17 +1772,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1784,7 +1790,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1792,17 +1798,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1818,17 +1824,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1836,7 +1842,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1844,13 +1850,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1862,7 +1868,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1870,17 +1876,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1896,17 +1902,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1914,7 +1920,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1922,17 +1928,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1940,7 +1946,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1948,13 +1954,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1966,7 +1972,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1974,17 +1980,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1992,7 +1998,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2000,17 +2006,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2018,7 +2024,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2026,17 +2032,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2044,7 +2050,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2052,17 +2058,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2070,7 +2076,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2078,13 +2084,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2096,7 +2102,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2104,13 +2110,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2122,7 +2128,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2130,13 +2136,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2148,7 +2154,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2156,17 +2162,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2182,17 +2188,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2200,7 +2206,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2208,17 +2214,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2234,17 +2240,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2252,7 +2258,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2260,13 +2266,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2278,7 +2284,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2286,13 +2292,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>128.25</v>
+        <v>90</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2304,7 +2310,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2312,13 +2318,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2330,7 +2336,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2338,13 +2344,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2356,7 +2362,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2364,13 +2370,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2382,7 +2388,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2390,17 +2396,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2408,7 +2414,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2416,17 +2422,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2434,7 +2440,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2442,17 +2448,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>22.079999999999998</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2460,7 +2466,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2468,17 +2474,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>29</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2494,17 +2500,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2512,7 +2518,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2520,13 +2526,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2538,7 +2544,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2546,13 +2552,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2564,7 +2570,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2572,13 +2578,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2590,7 +2596,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2598,17 +2604,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2624,17 +2630,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2642,7 +2648,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2650,17 +2656,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2668,7 +2674,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2676,17 +2682,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2694,7 +2700,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2702,17 +2708,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2720,7 +2726,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2728,17 +2734,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2746,7 +2752,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2754,17 +2760,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2772,7 +2778,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2780,17 +2786,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2798,7 +2804,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2806,17 +2812,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2832,17 +2838,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2850,7 +2856,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2858,17 +2864,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2876,7 +2882,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2884,17 +2890,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2902,7 +2908,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2916,11 +2922,11 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2928,7 +2934,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2936,13 +2942,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2962,17 +2968,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2980,7 +2986,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2988,17 +2994,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3006,7 +3012,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3014,17 +3020,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3032,7 +3038,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3040,17 +3046,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3058,7 +3064,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3066,17 +3072,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3084,7 +3090,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3098,7 +3104,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3110,7 +3116,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3118,13 +3124,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3136,7 +3142,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3144,17 +3150,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3170,17 +3176,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3196,17 +3202,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>31</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3228,11 +3234,11 @@
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3248,7 +3254,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -3258,7 +3264,7 @@
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3266,7 +3272,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3274,13 +3280,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3292,7 +3298,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3300,17 +3306,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3318,7 +3324,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3326,17 +3332,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3344,7 +3350,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3352,13 +3358,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3370,7 +3376,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3378,13 +3384,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3396,7 +3402,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3404,13 +3410,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3422,7 +3428,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3430,17 +3436,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3456,17 +3462,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3474,7 +3480,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3482,51 +3488,77 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="100" ht="26.25" customHeight="1">
-      <c r="K100" s="10">
-        <v>7022.2299999999996</v>
-      </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="11">
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
         <v>137</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c t="s" r="F101" s="12">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
         <v>138</v>
       </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="13"/>
-      <c t="s" r="I101" s="14">
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>45</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="K101" s="10">
+        <v>7037.2299999999996</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="11">
         <v>139</v>
       </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c t="s" r="F102" s="12">
+        <v>140</v>
+      </c>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13"/>
+      <c t="s" r="I102" s="14">
+        <v>141</v>
+      </c>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="299">
+  <mergeCells count="302">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3822,10 +3854,13 @@
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="I101:N101"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:N102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
